--- a/varselect/simulation_results/simulation51.result.xlsx
+++ b/varselect/simulation_results/simulation51.result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ms19g661\Documents\GitHub\phd\varselect\simulation_results_renumbered\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ms19g661\Documents\GitHub\phd\varselect\simulation_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -395,7 +395,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D6" sqref="A5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -488,13 +488,13 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="B5">
-        <v>0.121</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="C5">
         <v>6.3E-2</v>
       </c>
       <c r="D5">
-        <v>0.113</v>
+        <v>0.11700000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
